--- a/books.xlsx
+++ b/books.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Title</t>
   </si>
@@ -38,57 +38,57 @@
     <t>Cover</t>
   </si>
   <si>
+    <t>V E Schwab</t>
+  </si>
+  <si>
     <t>The Invisible Life of Addie LaRue</t>
   </si>
   <si>
-    <t>V E Schwab</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/71TFsG7r32L._UF894,1000_QL80_.jpg</t>
   </si>
   <si>
+    <t>Sabaa Tahir</t>
+  </si>
+  <si>
     <t>Heir</t>
   </si>
   <si>
-    <t>Sabaa Tahir</t>
-  </si>
-  <si>
     <t>https://i.gr-assets.com/images/S/compressed.photo.goodreads.com/books/1708009510l/206780522.jpg</t>
   </si>
   <si>
+    <t>Cassandra Clare</t>
+  </si>
+  <si>
     <t>Clockwork Angel</t>
   </si>
   <si>
-    <t>Cassandra Clare</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/8163yn9JujL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
+    <t>Dani Francis</t>
+  </si>
+  <si>
     <t>Silver Elite</t>
   </si>
   <si>
-    <t>Dani Francis</t>
-  </si>
-  <si>
     <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg</t>
   </si>
   <si>
+    <t>Amanda Bouchet</t>
+  </si>
+  <si>
     <t>A Promise of Fire</t>
   </si>
   <si>
-    <t>Amanda Bouchet</t>
-  </si>
-  <si>
     <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1637182295i/59645282.jpg</t>
   </si>
   <si>
+    <t>S.T. Gibson</t>
+  </si>
+  <si>
     <t>A Dowry of Blood</t>
   </si>
   <si>
-    <t>S.T. Gibson</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
@@ -98,58 +98,76 @@
     <t>https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg</t>
   </si>
   <si>
+    <t>Rebecca Robinson</t>
+  </si>
+  <si>
     <t>The Serpent and the Wolf</t>
   </si>
   <si>
-    <t>Rebecca Robinson</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg</t>
   </si>
   <si>
-    <t>FairyDale</t>
-  </si>
-  <si>
-    <t>Veronica Lancet</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81juGe+rJdL._UF350,350_QL50_.jpg</t>
-  </si>
-  <si>
-    <t>Divine RIvals</t>
-  </si>
-  <si>
-    <t>Rebecca Ross</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81F1d0-7nLL._UF894,1000_QL80_.jpg</t>
+    <t>Devney Perry</t>
+  </si>
+  <si>
+    <t>Shield of Sparrows</t>
+  </si>
+  <si>
+    <t>https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg</t>
+  </si>
+  <si>
+    <t>James Islington</t>
+  </si>
+  <si>
+    <t>The Will of the Many</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg</t>
+  </si>
+  <si>
+    <t>Hazel McBride</t>
   </si>
   <si>
     <t>A Fate Forged in Fire</t>
   </si>
   <si>
-    <t>Hazel McBride</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
+    <t>R. J. Bennett</t>
+  </si>
+  <si>
     <t>City of Stairs</t>
   </si>
   <si>
-    <t>R. J. Bennett</t>
-  </si>
-  <si>
     <t>https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg</t>
   </si>
   <si>
+    <t>Pierce Brown</t>
+  </si>
+  <si>
     <t>Red Rising</t>
   </si>
   <si>
-    <t>Pierce Brown</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>V. L. Bovalino</t>
+  </si>
+  <si>
+    <t>The Second Death of Locke</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Stephanie Garber</t>
+  </si>
+  <si>
+    <t>Alchemy of Secrets</t>
+  </si>
+  <si>
+    <t>https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1463,11 +1481,11 @@
       </c>
     </row>
     <row r="8" ht="40.35" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1495,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="40.35" spans="1:3">
+    <row r="11" ht="27.15" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1537,6 +1555,28 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="40.35" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="40.35" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1549,11 +1589,13 @@
     <hyperlink ref="C7" r:id="rId6" display="https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg"/>
     <hyperlink ref="C9" r:id="rId8" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://m.media-amazon.com/images/I/81juGe+rJdL._UF350,350_QL50_.jpg" tooltip="https://m.media-amazon.com/images/I/81juGe+rJdL._UF350,350_QL50_.jpg"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/I/81F1d0-7nLL._UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81F1d0-7nLL._UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg" tooltip="https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg"/>
     <hyperlink ref="C12" r:id="rId11" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C13" r:id="rId12" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
     <hyperlink ref="C14" r:id="rId13" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg" tooltip="https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -122,7 +122,7 @@
     <t>The Will of the Many</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg</t>
   </si>
   <si>
     <t>Hazel McBride</t>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1513,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="27.15" spans="1:3">
+    <row r="11" ht="53.55" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1590,7 @@
     <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg"/>
     <hyperlink ref="C9" r:id="rId8" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
     <hyperlink ref="C10" r:id="rId9" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg" tooltip="https://en.wikipedia.org/wiki/File:The_Will_of_the_Many.jpg"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg"/>
     <hyperlink ref="C12" r:id="rId11" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C13" r:id="rId12" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
     <hyperlink ref="C14" r:id="rId13" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -38,31 +38,22 @@
     <t>Cover</t>
   </si>
   <si>
-    <t>V E Schwab</t>
-  </si>
-  <si>
-    <t>The Invisible Life of Addie LaRue</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71TFsG7r32L._UF894,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>Sabaa Tahir</t>
-  </si>
-  <si>
-    <t>Heir</t>
-  </si>
-  <si>
-    <t>https://i.gr-assets.com/images/S/compressed.photo.goodreads.com/books/1708009510l/206780522.jpg</t>
-  </si>
-  <si>
-    <t>Cassandra Clare</t>
-  </si>
-  <si>
-    <t>Clockwork Angel</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/8163yn9JujL._UF1000,1000_QL80_.jpg</t>
+    <t>Stacia Stark</t>
+  </si>
+  <si>
+    <t>A Court this Cruel and Lovely</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Kylie Snow</t>
+  </si>
+  <si>
+    <t>The Lies of Lena</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/208884873-the-lies-of-lena</t>
   </si>
   <si>
     <t>Dani Francis</t>
@@ -74,30 +65,6 @@
     <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg</t>
   </si>
   <si>
-    <t>Amanda Bouchet</t>
-  </si>
-  <si>
-    <t>A Promise of Fire</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1637182295i/59645282.jpg</t>
-  </si>
-  <si>
-    <t>S.T. Gibson</t>
-  </si>
-  <si>
-    <t>A Dowry of Blood</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>City of Bones</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg</t>
-  </si>
-  <si>
     <t>Rebecca Robinson</t>
   </si>
   <si>
@@ -116,13 +83,13 @@
     <t>https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg</t>
   </si>
   <si>
-    <t>James Islington</t>
-  </si>
-  <si>
-    <t>The Will of the Many</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg</t>
+    <t>Ali Hazelwood</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg</t>
   </si>
   <si>
     <t>Hazel McBride</t>
@@ -161,13 +128,64 @@
     <t>https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg</t>
   </si>
   <si>
-    <t>Stephanie Garber</t>
-  </si>
-  <si>
-    <t>Alchemy of Secrets</t>
-  </si>
-  <si>
-    <t>https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg</t>
+    <t>Laura Steven</t>
+  </si>
+  <si>
+    <t>Our Infinite Fates</t>
+  </si>
+  <si>
+    <t>https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg</t>
+  </si>
+  <si>
+    <t>Invi Wright</t>
+  </si>
+  <si>
+    <t>The Female</t>
+  </si>
+  <si>
+    <t>https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/228256271-mate</t>
+  </si>
+  <si>
+    <t>Erin Sterling</t>
+  </si>
+  <si>
+    <t>The Ex Hex</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/56554626-the-ex-hex</t>
+  </si>
+  <si>
+    <t>RuNyx</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3</t>
+  </si>
+  <si>
+    <t>Sangu Mandanna</t>
+  </si>
+  <si>
+    <t>A witch's guide to magical innkeeping</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Thea Guanzon</t>
+  </si>
+  <si>
+    <t>Tusk Love</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1</t>
   </si>
 </sst>
 </file>
@@ -212,11 +230,10 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1E1915"/>
-      <name val="Copernicus"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF1E1915"/>
       <name val="Copernicus"/>
@@ -865,7 +882,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1390,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1425,18 +1442,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="53.55" spans="1:3">
+    <row r="3" ht="27.15" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="40.35" spans="1:3">
+    <row r="4" ht="53.55" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="53.55" spans="1:3">
+    <row r="5" ht="40.35" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="53.55" spans="1:3">
+    <row r="6" ht="40.35" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1482,73 +1499,73 @@
     </row>
     <row r="8" ht="40.35" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="40.35" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="40.35" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="53.55" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="40.35" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="40.35" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="40.35" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="27.15" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="40.35" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="27.15" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -1557,11 +1574,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="40.35" spans="1:3">
+    <row r="15" ht="27.15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1579,23 +1596,47 @@
         <v>46</v>
       </c>
     </row>
+    <row r="17" ht="40.35" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="40.35" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/I/71TFsG7r32L._UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/71TFsG7r32L._UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://i.gr-assets.com/images/S/compressed.photo.goodreads.com/books/1708009510l/206780522.jpg" tooltip="https://i.gr-assets.com/images/S/compressed.photo.goodreads.com/books/1708009510l/206780522.jpg"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://m.media-amazon.com/images/I/8163yn9JujL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/8163yn9JujL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1637182295i/59645282.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1637182295i/59645282.jpg"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/71vVKwhIkyL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81tUWpvsV9L._UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1670363463i/58416952.jpg"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg" tooltip="https://media.s-bol.com/o46xGAZXkOZ3/pg2K7JV/546x840.jpg"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.goodreads.com/book/show/208884873-the-lies-of-lena" tooltip="https://www.goodreads.com/book/show/208884873-the-lies-of-lena"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg" tooltip="https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg" tooltip="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg" tooltip="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.goodreads.com/book/show/228256271-mate" tooltip="https://www.goodreads.com/book/show/228256271-mate"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://www.goodreads.com/book/show/56554626-the-ex-hex" tooltip="https://www.goodreads.com/book/show/56554626-the-ex-hex"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3" tooltip="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>The Lies of Lena</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/208884873-the-lies-of-lena</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg</t>
   </si>
   <si>
     <t>Dani Francis</t>
@@ -149,7 +149,7 @@
     <t>Bride</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/228256271-mate</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg</t>
   </si>
   <si>
     <t>Erin Sterling</t>
@@ -158,7 +158,7 @@
     <t>The Ex Hex</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/56554626-the-ex-hex</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg</t>
   </si>
   <si>
     <t>RuNyx</t>
@@ -1409,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="27.15" spans="1:3">
+    <row r="3" ht="53.55" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="27.15" spans="1:3">
+    <row r="14" ht="53.55" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="27.15" spans="1:3">
+    <row r="15" ht="53.55" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1621,7 +1621,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.goodreads.com/book/show/208884873-the-lies-of-lena" tooltip="https://www.goodreads.com/book/show/208884873-the-lies-of-lena"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg"/>
     <hyperlink ref="C4" r:id="rId3" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
     <hyperlink ref="C5" r:id="rId4" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
     <hyperlink ref="C6" r:id="rId5" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
@@ -1632,8 +1632,8 @@
     <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
     <hyperlink ref="C12" r:id="rId11" display="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg" tooltip="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg"/>
     <hyperlink ref="C13" r:id="rId12" display="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg" tooltip="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.goodreads.com/book/show/228256271-mate" tooltip="https://www.goodreads.com/book/show/228256271-mate"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://www.goodreads.com/book/show/56554626-the-ex-hex" tooltip="https://www.goodreads.com/book/show/56554626-the-ex-hex"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg"/>
     <hyperlink ref="C16" r:id="rId15" display="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3" tooltip="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3"/>
     <hyperlink ref="C17" r:id="rId16" display="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C18" r:id="rId17" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Title</t>
   </si>
@@ -38,13 +38,13 @@
     <t>Cover</t>
   </si>
   <si>
-    <t>Stacia Stark</t>
-  </si>
-  <si>
-    <t>A Court this Cruel and Lovely</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg</t>
+    <t>Taheren Mafi</t>
+  </si>
+  <si>
+    <t>This Woven Kingdom</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1634235371i/56554281.jpg</t>
   </si>
   <si>
     <t>Kylie Snow</t>
@@ -53,7 +53,7 @@
     <t>The Lies of Lena</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg</t>
+    <t>https://www.goodreads.com/book/show/208884873-the-lies-of-lena</t>
   </si>
   <si>
     <t>Dani Francis</t>
@@ -83,73 +83,76 @@
     <t>https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg</t>
   </si>
   <si>
+    <t>Brandon Sanderson</t>
+  </si>
+  <si>
+    <t>Mistborn: The Final Empire</t>
+  </si>
+  <si>
+    <t>https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg</t>
+  </si>
+  <si>
+    <t>Hazel McBride</t>
+  </si>
+  <si>
+    <t>A Fate Forged in Fire</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>R. J. Bennett</t>
+  </si>
+  <si>
+    <t>City of Stairs</t>
+  </si>
+  <si>
+    <t>https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg</t>
+  </si>
+  <si>
+    <t>Pierce Brown</t>
+  </si>
+  <si>
+    <t>Red Rising</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>V. L. Bovalino</t>
+  </si>
+  <si>
+    <t>The Second Death of Locke</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Olivie Blake</t>
+  </si>
+  <si>
+    <t>Masters of Death</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Invi Wright</t>
+  </si>
+  <si>
+    <t>The Female</t>
+  </si>
+  <si>
+    <t>https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg</t>
+  </si>
+  <si>
     <t>Ali Hazelwood</t>
   </si>
   <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg</t>
-  </si>
-  <si>
-    <t>Hazel McBride</t>
-  </si>
-  <si>
-    <t>A Fate Forged in Fire</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>R. J. Bennett</t>
-  </si>
-  <si>
-    <t>City of Stairs</t>
-  </si>
-  <si>
-    <t>https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg</t>
-  </si>
-  <si>
-    <t>Pierce Brown</t>
-  </si>
-  <si>
-    <t>Red Rising</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>V. L. Bovalino</t>
-  </si>
-  <si>
-    <t>The Second Death of Locke</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>Laura Steven</t>
-  </si>
-  <si>
-    <t>Our Infinite Fates</t>
-  </si>
-  <si>
-    <t>https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg</t>
-  </si>
-  <si>
-    <t>Invi Wright</t>
-  </si>
-  <si>
-    <t>The Female</t>
-  </si>
-  <si>
-    <t>https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg</t>
-  </si>
-  <si>
     <t>Bride</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg</t>
+    <t>https://www.goodreads.com/book/show/228256271-mate</t>
   </si>
   <si>
     <t>Erin Sterling</t>
@@ -158,7 +161,7 @@
     <t>The Ex Hex</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg</t>
+    <t>https://www.goodreads.com/book/show/56554626-the-ex-hex</t>
   </si>
   <si>
     <t>RuNyx</t>
@@ -168,15 +171,6 @@
   </si>
   <si>
     <t>https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3</t>
-  </si>
-  <si>
-    <t>Sangu Mandanna</t>
-  </si>
-  <si>
-    <t>A witch's guide to magical innkeeping</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
     <t>Thea Guanzon</t>
@@ -855,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +866,12 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1409,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="40.35" spans="1:3">
+    <row r="2" ht="53.55" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="53.55" spans="1:3">
+    <row r="3" ht="27.15" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="40.35" spans="1:3">
+    <row r="7" ht="53.55" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1563,80 +1563,73 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="53.55" spans="1:3">
+    <row r="14" ht="27.15" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="53.55" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="40.35" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="40.35" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="40.35" spans="1:3">
-      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81JQPNhk3wL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1634235371i/56554281.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1634235371i/56554281.jpg"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.goodreads.com/book/show/208884873-the-lies-of-lena" tooltip="https://www.goodreads.com/book/show/208884873-the-lies-of-lena"/>
     <hyperlink ref="C4" r:id="rId3" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
     <hyperlink ref="C5" r:id="rId4" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
     <hyperlink ref="C6" r:id="rId5" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg" tooltip="https://alihazelwood.com/wp-content/uploads/2025/09/Bound_final-cover-1280x1280.jpg"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg" tooltip="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg"/>
     <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C9" r:id="rId8" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
     <hyperlink ref="C10" r:id="rId9" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
     <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg" tooltip="https://media.s-bol.com/qqpx7R9N41vy/zpzk5BZ/539x840.jpg"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg"/>
     <hyperlink ref="C13" r:id="rId12" display="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg" tooltip="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.goodreads.com/book/show/228256271-mate" tooltip="https://www.goodreads.com/book/show/228256271-mate"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://www.goodreads.com/book/show/56554626-the-ex-hex" tooltip="https://www.goodreads.com/book/show/56554626-the-ex-hex"/>
     <hyperlink ref="C16" r:id="rId15" display="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3" tooltip="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81dAeVEo8ML._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>The Lies of Lena</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/208884873-the-lies-of-lena</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1708376993i/208884873.jpg</t>
   </si>
   <si>
     <t>Dani Francis</t>
@@ -152,7 +152,7 @@
     <t>Bride</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/228256271-mate</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1730451646i/181344829.jpg</t>
   </si>
   <si>
     <t>Erin Sterling</t>
@@ -161,7 +161,7 @@
     <t>The Ex Hex</t>
   </si>
   <si>
-    <t>https://www.goodreads.com/book/show/56554626-the-ex-hex</t>
+    <t>https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1619305366i/56554626.jpg</t>
   </si>
   <si>
     <t>RuNyx</t>
@@ -849,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,12 +866,6 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1409,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1442,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="27.15" spans="1:3">
+    <row r="3" ht="53.55" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="27.15" spans="1:3">
+    <row r="14" ht="53.55" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="27.15" spans="1:3">
+    <row r="15" ht="53.55" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1607,29 +1601,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+    <row r="18" ht="15.15" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1634235371i/56554281.jpg" tooltip="https://m.media-amazon.com/images/S/compressed.photo.goodreads.com/books/1634235371i/56554281.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.goodreads.com/book/show/208884873-the-lies-of-lena" tooltip="https://www.goodreads.com/book/show/208884873-the-lies-of-lena"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg" tooltip="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg" tooltip="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.goodreads.com/book/show/228256271-mate" tooltip="https://www.goodreads.com/book/show/228256271-mate"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://www.goodreads.com/book/show/56554626-the-ex-hex" tooltip="https://www.goodreads.com/book/show/56554626-the-ex-hex"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3" tooltip="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg" tooltip="https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1728609987i/217245572.jpg"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg" tooltip="https://m.media-amazon.com/images/I/7186YNOq9wL._SY466_.jpg"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg" tooltip="https://devneyperry.com/wp-content/uploads/2024/11/ShieldOfSparrows-1600-1.jpg"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg" tooltip="https://cdn.kobo.com/book-images/262e58e4-8ab1-4ab4-b89a-eac880b1a0a1/1200/1200/False/mistborn.jpg"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/91E0OEUccOL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg" tooltip="https://media.s-bol.com/JkE8nB1gOpr9/mZ8qPNp/546x840.jpg"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81YOu17CxTL._UF1000,1000_QL80_.jpg"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81XCo+49lBL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg" tooltip="https://m.media-amazon.com/images/I/81MKKCAmRgL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg" tooltip="https://api.bruna.nl/images/active/carrousel/fullsize/9781966285007_front.jpg"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3" tooltip="https://mpd-biblio-covers.imgix.net/9781250334244.jpg?w=300&amp;dpr=3"/>
+    <hyperlink ref="C17" r:id="rId13" display="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1" tooltip="https://i0.wp.com/thenerddaily.com/wp-content/uploads/2025/07/Tusk-Love-by-Thea-Guanzon.jpg?w=964&amp;ssl=1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
